--- a/docs/org.eclipse.eatop.doc.design/EATOPFeatureMap.xlsx
+++ b/docs/org.eclipse.eatop.doc.design/EATOPFeatureMap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eatop\docs\org.eclipse.eatop.doc.design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\Git-EATOP\org.eclipse.eatop\docs\org.eclipse.eatop.doc.design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Included Plug-ins</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t xml:space="preserve">org.eclipse.eatop.gestadl     org.eclipse.eatop.gestadl.edit   org.eclipse.eatop.eastadl21 org.eclipse.eatop.eastadl21.edit org.eclipse.eatop.serialization  org.eclipse.eatop.common   org.eclipse.eatop.common.ui </t>
+  </si>
+  <si>
+    <t>org.eclipse.eatop.license</t>
+  </si>
+  <si>
+    <t>EATOP License</t>
   </si>
 </sst>
 </file>
@@ -351,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="3" name="Feature id" dataDxfId="3"/>
     <tableColumn id="4" name="Feature name" dataDxfId="2"/>
@@ -655,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -862,10 +868,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -933,8 +939,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
